--- a/data_experiments/CRP_rvoll_glcx_frc.xlsx
+++ b/data_experiments/CRP_rvoll_glcx_frc.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Floodlight\ft_Regulation_Katrin\data_experiments\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CAAAB8-09EA-4D98-9B7D-D764BC8929AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="765" yWindow="540" windowWidth="10410" windowHeight="10350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>RctFlag</t>
   </si>
@@ -326,13 +343,22 @@
   </si>
   <si>
     <t>CRP_r</t>
+  </si>
+  <si>
+    <t>Excelberechnung:</t>
+  </si>
+  <si>
+    <t>% Expr</t>
+  </si>
+  <si>
+    <t>% Flux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,7 +383,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -380,26 +406,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,9 +524,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,6 +576,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,14 +769,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C85" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,8 +800,18 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -729,16 +828,24 @@
         <v>1.68</v>
       </c>
       <c r="F2">
-        <v>7.477381962160287</v>
+        <v>7.4773819621602868</v>
       </c>
       <c r="G2">
         <v>4.45082259652398</v>
       </c>
       <c r="H2">
-        <v>7.477381962160286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>7.4773819621602859</v>
+      </c>
+      <c r="K2">
+        <f>E2/D2</f>
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>H2/F2</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -752,7 +859,7 @@
         <v>1.687030361939619</v>
       </c>
       <c r="E3">
-        <v>2.694454608959892</v>
+        <v>2.6944546089598922</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -763,8 +870,16 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="0">E3/D3</f>
+        <v>1.5971583379578382</v>
+      </c>
+      <c r="L3" t="e">
+        <f t="shared" ref="L3:L66" si="1">H3/F3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,22 +890,30 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1.701</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="E4">
-        <v>1.701</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="F4">
-        <v>-5.139138853503174</v>
+        <v>-5.1391388535031739</v>
       </c>
       <c r="G4">
-        <v>-3.021245651677351</v>
+        <v>-3.0212456516773512</v>
       </c>
       <c r="H4">
-        <v>-5.139138853503174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-5.1391388535031739</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,22 +924,30 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>1.277726042682691</v>
+        <v>1.2777260426826911</v>
       </c>
       <c r="E5">
-        <v>2.228513861273624</v>
+        <v>2.2285138612736239</v>
       </c>
       <c r="F5">
-        <v>-16.02352614316762</v>
+        <v>-16.023526143167619</v>
       </c>
       <c r="G5">
-        <v>-12.54065864504484</v>
+        <v>-12.540658645044839</v>
       </c>
       <c r="H5">
-        <v>-27.94703161998334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>-27.947031619983338</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.7441249429296091</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>1.7441249429296102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -827,22 +958,30 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>1.785</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="E6">
-        <v>1.785</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="F6">
-        <v>4.959984944574646</v>
+        <v>4.9599849445746456</v>
       </c>
       <c r="G6">
-        <v>2.778703050181874</v>
+        <v>2.7787030501818739</v>
       </c>
       <c r="H6">
-        <v>4.959984944574646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>4.9599849445746456</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -853,10 +992,10 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>1.233611076877064</v>
+        <v>1.2336110768770641</v>
       </c>
       <c r="E7">
-        <v>2.169956105365827</v>
+        <v>2.1699561053658272</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -867,8 +1006,16 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1.7590277406223995</v>
+      </c>
+      <c r="L7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -879,10 +1026,10 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>1.412</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="E8">
-        <v>1.412</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -893,8 +1040,16 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -905,22 +1060,30 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>0.788</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="E9">
-        <v>0.788</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="F9">
         <v>-14.71613956874285</v>
       </c>
       <c r="G9">
-        <v>-18.67530402124727</v>
+        <v>-18.675304021247271</v>
       </c>
       <c r="H9">
         <v>-14.71613956874285</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -931,22 +1094,30 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>1.027</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="E10">
-        <v>1.027</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="F10">
-        <v>3.214895047684765</v>
+        <v>3.2148950476847649</v>
       </c>
       <c r="G10">
-        <v>3.130374924717396</v>
+        <v>3.1303749247173962</v>
       </c>
       <c r="H10">
-        <v>3.214895047684765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>3.2148950476847649</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -957,10 +1128,10 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>1.582</v>
+        <v>1.5820000000000001</v>
       </c>
       <c r="E11">
-        <v>1.582</v>
+        <v>1.5820000000000001</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -971,8 +1142,16 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -997,8 +1176,16 @@
       <c r="H12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1009,7 +1196,7 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>1.56455231735073</v>
+        <v>1.5645523173507301</v>
       </c>
       <c r="E13">
         <v>2.56957961884827</v>
@@ -1023,8 +1210,16 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>1.6423737259226725</v>
+      </c>
+      <c r="L13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1035,22 +1230,30 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <v>1.564</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="E14">
-        <v>1.564</v>
+        <v>1.5640000000000001</v>
       </c>
       <c r="F14">
-        <v>2.504309470368731</v>
+        <v>2.5043094703687312</v>
       </c>
       <c r="G14">
         <v>1.601220888982565</v>
       </c>
       <c r="H14">
-        <v>2.504309470368731</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>2.5043094703687312</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1061,22 +1264,30 @@
         <v>20</v>
       </c>
       <c r="D15">
-        <v>1.199</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="E15">
-        <v>1.199</v>
+        <v>1.1990000000000001</v>
       </c>
       <c r="F15">
-        <v>6.007249575350349</v>
+        <v>6.0072495753503494</v>
       </c>
       <c r="G15">
         <v>5.01021649320296</v>
       </c>
       <c r="H15">
-        <v>6.007249575350349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>6.0072495753503494</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1093,16 +1304,24 @@
         <v>1.446</v>
       </c>
       <c r="F16">
-        <v>6.007249575350357</v>
+        <v>6.0072495753503574</v>
       </c>
       <c r="G16">
-        <v>4.154391130947688</v>
+        <v>4.1543911309476877</v>
       </c>
       <c r="H16">
-        <v>6.007249575350357</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>6.0072495753503574</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1113,22 +1332,30 @@
         <v>22</v>
       </c>
       <c r="D17">
-        <v>3.385</v>
+        <v>3.3849999999999998</v>
       </c>
       <c r="E17">
-        <v>3.385</v>
+        <v>3.3849999999999998</v>
       </c>
       <c r="F17">
-        <v>8.390000000000001</v>
+        <v>8.39</v>
       </c>
       <c r="G17">
-        <v>2.478581979320532</v>
+        <v>2.4785819793205319</v>
       </c>
       <c r="H17">
-        <v>8.390000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>8.39</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1142,7 +1369,7 @@
         <v>1.879</v>
       </c>
       <c r="E18">
-        <v>0.89194565731266</v>
+        <v>0.89194565731265996</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1153,8 +1380,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0.47469167499343268</v>
+      </c>
+      <c r="L18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1179,8 +1414,16 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1205,8 +1448,16 @@
       <c r="H20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1217,10 +1468,10 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>1.283</v>
+        <v>1.2829999999999999</v>
       </c>
       <c r="E21">
-        <v>1.283</v>
+        <v>1.2829999999999999</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1231,8 +1482,16 @@
       <c r="H21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1243,22 +1502,30 @@
         <v>27</v>
       </c>
       <c r="D22">
-        <v>1.761</v>
+        <v>1.7609999999999999</v>
       </c>
       <c r="E22">
-        <v>0.7579949740133868</v>
+        <v>0.75799497401338678</v>
       </c>
       <c r="F22">
-        <v>5.064375661482113</v>
+        <v>5.0643756614821127</v>
       </c>
       <c r="G22">
-        <v>2.875852164385073</v>
+        <v>2.8758521643850732</v>
       </c>
       <c r="H22">
-        <v>2.179881486609405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>2.1798814866094052</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0.43043439750902146</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0.43043439750902146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1275,16 +1542,24 @@
         <v>1.363</v>
       </c>
       <c r="F23">
-        <v>45.51400977451757</v>
+        <v>45.514009774517568</v>
       </c>
       <c r="G23">
-        <v>33.39252367902976</v>
+        <v>33.392523679029757</v>
       </c>
       <c r="H23">
-        <v>45.51400977451757</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>45.514009774517568</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1309,8 +1584,16 @@
       <c r="H24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1321,22 +1604,30 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>0.989</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="E25">
-        <v>0.989</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="F25">
         <v>1.758177444106805</v>
       </c>
       <c r="G25">
-        <v>1.777732501624676</v>
+        <v>1.7777325016246761</v>
       </c>
       <c r="H25">
         <v>1.758177444106805</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1356,13 +1647,21 @@
         <v>0.8739215069684303</v>
       </c>
       <c r="G26">
-        <v>0.5104681699581953</v>
+        <v>0.51046816995819533</v>
       </c>
       <c r="H26">
-        <v>0.8739215069684304</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.87392150696843041</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1373,10 +1672,10 @@
         <v>32</v>
       </c>
       <c r="D27">
-        <v>0.831</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="E27">
-        <v>0.831</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1387,8 +1686,16 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1399,22 +1706,30 @@
         <v>33</v>
       </c>
       <c r="D28">
-        <v>1.433</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="E28">
-        <v>1.433</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="F28">
-        <v>-22.80983331020501</v>
+        <v>-22.809833310205011</v>
       </c>
       <c r="G28">
-        <v>-15.91753894640964</v>
+        <v>-15.917538946409641</v>
       </c>
       <c r="H28">
-        <v>-22.80983331020501</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>-22.809833310205011</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1434,13 +1749,21 @@
         <v>2.678481850507521</v>
       </c>
       <c r="G29">
-        <v>1.203271271566721</v>
+        <v>1.2032712715667211</v>
       </c>
       <c r="H29">
         <v>2.678481850507521</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1451,22 +1774,30 @@
         <v>35</v>
       </c>
       <c r="D30">
-        <v>1.585562010154321</v>
+        <v>1.5855620101543211</v>
       </c>
       <c r="E30">
         <v>2.59187194771487</v>
       </c>
       <c r="F30">
-        <v>6.007249575350349</v>
+        <v>6.0072495753503494</v>
       </c>
       <c r="G30">
-        <v>3.788719417391737</v>
+        <v>3.7887194173917371</v>
       </c>
       <c r="H30">
-        <v>9.819875575700269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>9.8198755757002694</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>1.6346708177390084</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>1.6346708177390088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1477,22 +1808,30 @@
         <v>36</v>
       </c>
       <c r="D31">
-        <v>2.119</v>
+        <v>2.1190000000000002</v>
       </c>
       <c r="E31">
-        <v>2.119</v>
+        <v>2.1190000000000002</v>
       </c>
       <c r="F31">
-        <v>-2.281503094067124</v>
+        <v>-2.2815030940671241</v>
       </c>
       <c r="G31">
-        <v>-1.076688576718794</v>
+        <v>-1.0766885767187939</v>
       </c>
       <c r="H31">
-        <v>-2.281503094067124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-2.2815030940671241</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1506,7 +1845,7 @@
         <v>1.680835872290311</v>
       </c>
       <c r="E32">
-        <v>2.68843148681273</v>
+        <v>2.6884314868127301</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1517,8 +1856,16 @@
       <c r="H32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>1.5994610366980488</v>
+      </c>
+      <c r="L32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1535,16 +1882,24 @@
         <v>1.304</v>
       </c>
       <c r="F33">
-        <v>43.59898531199762</v>
+        <v>43.598985311997623</v>
       </c>
       <c r="G33">
-        <v>33.43480468711473</v>
+        <v>33.434804687114728</v>
       </c>
       <c r="H33">
-        <v>43.59898531199762</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>43.598985311997623</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1555,10 +1910,10 @@
         <v>39</v>
       </c>
       <c r="D34">
-        <v>1.999</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="E34">
-        <v>1.999</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1569,8 +1924,16 @@
       <c r="H34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1595,8 +1958,16 @@
       <c r="H35">
         <v>14.71613956874285</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1607,10 +1978,10 @@
         <v>41</v>
       </c>
       <c r="D36">
-        <v>0.866</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="E36">
-        <v>0.866</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1621,8 +1992,16 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1633,10 +2012,10 @@
         <v>42</v>
       </c>
       <c r="D37">
-        <v>1.442</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="E37">
-        <v>1.442</v>
+        <v>1.4419999999999999</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1647,8 +2026,16 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1665,16 +2052,24 @@
         <v>2.466382841989442</v>
       </c>
       <c r="F38">
-        <v>5.064375661482113</v>
+        <v>5.0643756614821127</v>
       </c>
       <c r="G38">
-        <v>3.441791501607837</v>
+        <v>3.4417915016078369</v>
       </c>
       <c r="H38">
-        <v>8.488775505270645</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>8.4887755052706453</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>1.6761741372847458</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>1.6761741372847461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1685,22 +2080,30 @@
         <v>44</v>
       </c>
       <c r="D39">
-        <v>1.314149792106904</v>
+        <v>1.3141497921069041</v>
       </c>
       <c r="E39">
         <v>2.275638510113478</v>
       </c>
       <c r="F39">
-        <v>-5.064375661482113</v>
+        <v>-5.0643756614821127</v>
       </c>
       <c r="G39">
-        <v>-3.853727856519824</v>
+        <v>-3.8537278565198241</v>
       </c>
       <c r="H39">
-        <v>-8.76969151779358</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>-8.7696915177935804</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>1.7316431686718694</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>1.7316431686718694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1720,13 +2123,21 @@
         <v>1.496983757261563</v>
       </c>
       <c r="G40">
-        <v>0.8495935058238157</v>
+        <v>0.84959350582381565</v>
       </c>
       <c r="H40">
         <v>1.496983757261563</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1751,8 +2162,16 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1763,10 +2182,10 @@
         <v>47</v>
       </c>
       <c r="D42">
-        <v>0.837</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="E42">
-        <v>0.837</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="F42">
         <v>1.496983757261563</v>
@@ -1777,8 +2196,16 @@
       <c r="H42">
         <v>1.496983757261563</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1789,22 +2216,30 @@
         <v>48</v>
       </c>
       <c r="D43">
-        <v>1.864</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="E43">
-        <v>1.864</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="F43">
-        <v>1.181498093245959</v>
+        <v>1.1814980932459589</v>
       </c>
       <c r="G43">
-        <v>0.6338509083937546</v>
+        <v>0.63385090839375458</v>
       </c>
       <c r="H43">
-        <v>1.181498093245959</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>1.1814980932459589</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1815,22 +2250,30 @@
         <v>49</v>
       </c>
       <c r="D44">
-        <v>2.239</v>
+        <v>2.2389999999999999</v>
       </c>
       <c r="E44">
-        <v>2.239</v>
+        <v>2.2389999999999999</v>
       </c>
       <c r="F44">
-        <v>7.477381962160287</v>
+        <v>7.4773819621602868</v>
       </c>
       <c r="G44">
-        <v>3.339607843751803</v>
+        <v>3.3396078437518031</v>
       </c>
       <c r="H44">
-        <v>7.477381962160287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>7.4773819621602868</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1841,10 +2284,10 @@
         <v>50</v>
       </c>
       <c r="D45">
-        <v>1.592</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="E45">
-        <v>1.592</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1855,8 +2298,16 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1881,8 +2332,16 @@
       <c r="H46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1893,10 +2352,10 @@
         <v>52</v>
       </c>
       <c r="D47">
-        <v>2.437</v>
+        <v>2.4369999999999998</v>
       </c>
       <c r="E47">
-        <v>2.437</v>
+        <v>2.4369999999999998</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1907,8 +2366,16 @@
       <c r="H47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1919,22 +2386,30 @@
         <v>53</v>
       </c>
       <c r="D48">
-        <v>0.9429999999999999</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="E48">
-        <v>0.9429999999999999</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="F48">
-        <v>22.80983331020501</v>
+        <v>22.809833310205011</v>
       </c>
       <c r="G48">
-        <v>24.18858251347297</v>
+        <v>24.188582513472969</v>
       </c>
       <c r="H48">
-        <v>22.80983331020501</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>22.809833310205011</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1945,10 +2420,10 @@
         <v>54</v>
       </c>
       <c r="D49">
-        <v>1.529</v>
+        <v>1.5289999999999999</v>
       </c>
       <c r="E49">
-        <v>1.529</v>
+        <v>1.5289999999999999</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1959,8 +2434,16 @@
       <c r="H49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1985,8 +2468,16 @@
       <c r="H50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2006,13 +2497,21 @@
         <v>-10</v>
       </c>
       <c r="G51">
-        <v>-4.82392667631452</v>
+        <v>-4.8239266763145201</v>
       </c>
       <c r="H51">
         <v>-10</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2037,8 +2536,16 @@
       <c r="H52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2063,8 +2570,16 @@
       <c r="H53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2075,10 +2590,10 @@
         <v>59</v>
       </c>
       <c r="D54">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="E54">
-        <v>0.911</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2089,8 +2604,16 @@
       <c r="H54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2101,10 +2624,10 @@
         <v>60</v>
       </c>
       <c r="D55">
-        <v>1.533</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="E55">
-        <v>1.533</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2115,8 +2638,16 @@
       <c r="H55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L55" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2133,16 +2664,24 @@
         <v>1.976</v>
       </c>
       <c r="F56">
-        <v>17.53086542978668</v>
+        <v>17.530865429786679</v>
       </c>
       <c r="G56">
-        <v>8.87189546041836</v>
+        <v>8.8718954604183597</v>
       </c>
       <c r="H56">
-        <v>17.53086542978668</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>17.530865429786679</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2162,13 +2701,21 @@
         <v>29.17582713556579</v>
       </c>
       <c r="G57">
-        <v>10.57861752558586</v>
+        <v>10.578617525585861</v>
       </c>
       <c r="H57">
         <v>29.17582713556579</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2179,10 +2726,10 @@
         <v>63</v>
       </c>
       <c r="D58">
-        <v>1.715</v>
+        <v>1.7150000000000001</v>
       </c>
       <c r="E58">
-        <v>1.715</v>
+        <v>1.7150000000000001</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2193,8 +2740,16 @@
       <c r="H58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2219,8 +2774,16 @@
       <c r="H59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L59" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2231,22 +2794,30 @@
         <v>65</v>
       </c>
       <c r="D60">
-        <v>2.433</v>
+        <v>2.4329999999999998</v>
       </c>
       <c r="E60">
-        <v>2.433</v>
+        <v>2.4329999999999998</v>
       </c>
       <c r="F60">
-        <v>-4.765319193197463</v>
+        <v>-4.7653191931974632</v>
       </c>
       <c r="G60">
         <v>-1.958618657294477</v>
       </c>
       <c r="H60">
-        <v>-4.765319193197463</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-4.7653191931974632</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2257,22 +2828,30 @@
         <v>66</v>
       </c>
       <c r="D61">
-        <v>3.127</v>
+        <v>3.1269999999999998</v>
       </c>
       <c r="E61">
-        <v>3.127</v>
+        <v>3.1269999999999998</v>
       </c>
       <c r="F61">
-        <v>-21.79949265599881</v>
+        <v>-21.799492655998812</v>
       </c>
       <c r="G61">
-        <v>-6.971375969299268</v>
+        <v>-6.9713759692992676</v>
       </c>
       <c r="H61">
-        <v>-21.79949265599881</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>-21.799492655998812</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2289,16 +2868,24 @@
         <v>1.198</v>
       </c>
       <c r="F62">
-        <v>-3.214895047684765</v>
+        <v>-3.2148950476847649</v>
       </c>
       <c r="G62">
-        <v>-2.68355179272518</v>
+        <v>-2.6835517927251802</v>
       </c>
       <c r="H62">
-        <v>-3.214895047684765</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-3.2148950476847649</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2309,10 +2896,10 @@
         <v>68</v>
       </c>
       <c r="D63">
-        <v>1.116</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="E63">
-        <v>1.116</v>
+        <v>1.1160000000000001</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2323,8 +2910,16 @@
       <c r="H63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L63" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2335,10 +2930,10 @@
         <v>69</v>
       </c>
       <c r="D64">
-        <v>1.824</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="E64">
-        <v>1.824</v>
+        <v>1.8240000000000001</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2349,8 +2944,16 @@
       <c r="H64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L64" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2367,16 +2970,24 @@
         <v>2.677149613710788</v>
       </c>
       <c r="F65">
-        <v>7.477381962160287</v>
+        <v>7.4773819621602868</v>
       </c>
       <c r="G65">
-        <v>4.479304552644524</v>
+        <v>4.4793045526445239</v>
       </c>
       <c r="H65">
         <v>11.99176845280526</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>1.6037389173764673</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>1.6037389173764669</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2390,7 +3001,7 @@
         <v>1.606548808785264</v>
       </c>
       <c r="E66">
-        <v>2.613777875822805</v>
+        <v>2.6137778758228052</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2401,8 +3012,16 @@
       <c r="H66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>1.626952048720588</v>
+      </c>
+      <c r="L66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2427,8 +3046,16 @@
       <c r="H67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="K67">
+        <f t="shared" ref="K67:K98" si="2">E67/D67</f>
+        <v>1.665861069397764</v>
+      </c>
+      <c r="L67" t="e">
+        <f t="shared" ref="L67:L98" si="3">H67/F67</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2439,10 +3066,10 @@
         <v>73</v>
       </c>
       <c r="D68">
-        <v>1.582964262770386</v>
+        <v>1.5829642627703859</v>
       </c>
       <c r="E68">
-        <v>2.589135285408909</v>
+        <v>2.5891352854089091</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2453,8 +3080,16 @@
       <c r="H68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="K68">
+        <f t="shared" si="2"/>
+        <v>1.6356245976631196</v>
+      </c>
+      <c r="L68" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2465,10 +3100,10 @@
         <v>74</v>
       </c>
       <c r="D69">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E69">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2479,8 +3114,16 @@
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="K69">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L69" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2491,22 +3134,30 @@
         <v>75</v>
       </c>
       <c r="D70">
-        <v>1.320861035841358</v>
+        <v>1.3208610358413579</v>
       </c>
       <c r="E70">
-        <v>2.284200409886897</v>
+        <v>2.2842004098868971</v>
       </c>
       <c r="F70">
         <v>10</v>
       </c>
       <c r="G70">
-        <v>7.570819131348086</v>
+        <v>7.5708191313480864</v>
       </c>
       <c r="H70">
-        <v>17.29326816300486</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>17.293268163004861</v>
+      </c>
+      <c r="K70">
+        <f>E70/D70</f>
+        <v>1.7293268163004856</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="3"/>
+        <v>1.729326816300486</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2520,19 +3171,27 @@
         <v>1.567168678359409</v>
       </c>
       <c r="E71">
-        <v>2.57237552277612</v>
+        <v>2.5723755227761198</v>
       </c>
       <c r="F71">
-        <v>5.064375661482114</v>
+        <v>5.0643756614821136</v>
       </c>
       <c r="G71">
-        <v>3.231544715903688</v>
+        <v>3.2315447159036879</v>
       </c>
       <c r="H71">
-        <v>8.312746527947159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>8.3127465279471586</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="2"/>
+        <v>1.6414158592481647</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="3"/>
+        <v>1.6414158592481651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2557,8 +3216,16 @@
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="K72">
+        <f t="shared" si="2"/>
+        <v>1.6109479953880153</v>
+      </c>
+      <c r="L72" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2569,10 +3236,10 @@
         <v>78</v>
       </c>
       <c r="D73">
-        <v>2.602</v>
+        <v>2.6019999999999999</v>
       </c>
       <c r="E73">
-        <v>2.602</v>
+        <v>2.6019999999999999</v>
       </c>
       <c r="F73">
         <v>4.95998494457465</v>
@@ -2583,8 +3250,16 @@
       <c r="H73">
         <v>4.95998494457465</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="K73">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2601,16 +3276,24 @@
         <v>2.618326374081879</v>
       </c>
       <c r="F74">
-        <v>16.02352614316762</v>
+        <v>16.023526143167619</v>
       </c>
       <c r="G74">
-        <v>9.946629560167436</v>
+        <v>9.9466295601674357</v>
       </c>
       <c r="H74">
-        <v>26.04352251060884</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>26.043522510608842</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="2"/>
+        <v>1.6253302973336932</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="3"/>
+        <v>1.6253302973336938</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2621,10 +3304,10 @@
         <v>80</v>
       </c>
       <c r="D75">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="E75">
-        <v>0.1260899228039405</v>
+        <v>0.12608992280394049</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2635,8 +3318,16 @@
       <c r="H75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="K75">
+        <f t="shared" si="2"/>
+        <v>0.13932588155131545</v>
+      </c>
+      <c r="L75" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2647,22 +3338,30 @@
         <v>81</v>
       </c>
       <c r="D76">
-        <v>0.8139999999999999</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="E76">
-        <v>0.09345326164540348</v>
+        <v>9.3453261645403476E-2</v>
       </c>
       <c r="F76">
-        <v>0.2234617293318288</v>
+        <v>0.22346172933182881</v>
       </c>
       <c r="G76">
-        <v>0.2745230090071606</v>
+        <v>0.27452300900716059</v>
       </c>
       <c r="H76">
-        <v>0.02565507058842964</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>2.565507058842964E-2</v>
+      </c>
+      <c r="K76">
+        <f>E76/D76</f>
+        <v>0.11480744673882491</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="3"/>
+        <v>0.1148074467388249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2673,10 +3372,10 @@
         <v>82</v>
       </c>
       <c r="D77">
-        <v>1.049</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="E77">
-        <v>1.049</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -2687,8 +3386,16 @@
       <c r="H77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="K77">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L77" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2702,19 +3409,27 @@
         <v>1.054</v>
       </c>
       <c r="E78">
-        <v>0.193019142413702</v>
+        <v>0.19301914241370199</v>
       </c>
       <c r="F78">
         <v>-4.541857463865635</v>
       </c>
       <c r="G78">
-        <v>-4.309162679189407</v>
+        <v>-4.3091626791894067</v>
       </c>
       <c r="H78">
-        <v>-0.8317508848582696</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.83175088485826965</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="2"/>
+        <v>0.18313011614203226</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="3"/>
+        <v>0.18313011614203223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2725,10 +3440,10 @@
         <v>84</v>
       </c>
       <c r="D79">
-        <v>1.253</v>
+        <v>1.2529999999999999</v>
       </c>
       <c r="E79">
-        <v>1.253</v>
+        <v>1.2529999999999999</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2739,8 +3454,16 @@
       <c r="H79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="K79">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L79" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2751,7 +3474,7 @@
         <v>85</v>
       </c>
       <c r="D80">
-        <v>2.445</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="E80">
         <v>1.672988993994539</v>
@@ -2765,8 +3488,16 @@
       <c r="H80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="K80">
+        <f t="shared" si="2"/>
+        <v>0.68424907729838003</v>
+      </c>
+      <c r="L80" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2791,8 +3522,16 @@
       <c r="H81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="K81">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L81" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2809,16 +3548,24 @@
         <v>1.976</v>
       </c>
       <c r="F82">
-        <v>4.959984944574646</v>
+        <v>4.9599849445746456</v>
       </c>
       <c r="G82">
-        <v>2.510113838347493</v>
+        <v>2.5101138383474928</v>
       </c>
       <c r="H82">
-        <v>4.959984944574646</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>4.9599849445746456</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2843,8 +3590,16 @@
       <c r="H83">
         <v>-29.17582713556579</v>
       </c>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="K83">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2855,22 +3610,30 @@
         <v>89</v>
       </c>
       <c r="D84">
-        <v>1.201</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="E84">
-        <v>1.201</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="F84">
-        <v>6.007249575350357</v>
+        <v>6.0072495753503574</v>
       </c>
       <c r="G84">
-        <v>5.001873085220946</v>
+        <v>5.0018730852209456</v>
       </c>
       <c r="H84">
-        <v>6.007249575350356</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>6.0072495753503556</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999967</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2884,7 +3647,7 @@
         <v>1.81</v>
       </c>
       <c r="E85">
-        <v>0.8123061265700864</v>
+        <v>0.81230612657008638</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2895,8 +3658,16 @@
       <c r="H85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="K85">
+        <f t="shared" si="2"/>
+        <v>0.44878791523209194</v>
+      </c>
+      <c r="L85" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2907,10 +3678,10 @@
         <v>91</v>
       </c>
       <c r="D86">
-        <v>2.235</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="E86">
-        <v>2.235</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2921,8 +3692,16 @@
       <c r="H86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="K86">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L86" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2947,8 +3726,16 @@
       <c r="H87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="K87">
+        <f t="shared" si="2"/>
+        <v>0.33413022116983027</v>
+      </c>
+      <c r="L87" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2962,7 +3749,7 @@
         <v>1.7</v>
       </c>
       <c r="E88">
-        <v>2.706965479536782</v>
+        <v>2.7069654795367821</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2973,8 +3760,16 @@
       <c r="H88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="K88">
+        <f t="shared" si="2"/>
+        <v>1.5923326350216367</v>
+      </c>
+      <c r="L88" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2991,16 +3786,24 @@
         <v>2.706842172664953</v>
       </c>
       <c r="F89">
-        <v>5.064375661482114</v>
+        <v>5.0643756614821136</v>
       </c>
       <c r="G89">
-        <v>2.979269731688749</v>
+        <v>2.9792697316887491</v>
       </c>
       <c r="H89">
-        <v>8.064412953479303</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>8.0644129534793034</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="2"/>
+        <v>1.5923804813324642</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="3"/>
+        <v>1.592380481332464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3011,10 +3814,10 @@
         <v>95</v>
       </c>
       <c r="D90">
-        <v>1.878</v>
+        <v>1.8779999999999999</v>
       </c>
       <c r="E90">
-        <v>1.878</v>
+        <v>1.8779999999999999</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3025,8 +3828,16 @@
       <c r="H90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="K90">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L90" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3051,8 +3862,16 @@
       <c r="H91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="K91">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3063,22 +3882,30 @@
         <v>97</v>
       </c>
       <c r="D92">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="E92">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="F92">
-        <v>38.5346096505155</v>
+        <v>38.534609650515499</v>
       </c>
       <c r="G92">
-        <v>41.56915819904584</v>
+        <v>41.569158199045837</v>
       </c>
       <c r="H92">
-        <v>38.5346096505155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>38.534609650515499</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3089,10 +3916,10 @@
         <v>98</v>
       </c>
       <c r="D93">
-        <v>1.668</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="E93">
-        <v>1.668</v>
+        <v>1.6679999999999999</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -3103,8 +3930,16 @@
       <c r="H93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="K93">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L93" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3115,22 +3950,30 @@
         <v>99</v>
       </c>
       <c r="D94">
-        <v>1.803</v>
+        <v>1.8029999999999999</v>
       </c>
       <c r="E94">
-        <v>1.803</v>
+        <v>1.8029999999999999</v>
       </c>
       <c r="F94">
-        <v>4.765319193197463</v>
+        <v>4.7653191931974632</v>
       </c>
       <c r="G94">
         <v>2.642994560841633</v>
       </c>
       <c r="H94">
-        <v>4.765319193197463</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>4.7653191931974632</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3141,22 +3984,30 @@
         <v>100</v>
       </c>
       <c r="D95">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="E95">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="F95">
-        <v>21.79949265599881</v>
+        <v>21.799492655998812</v>
       </c>
       <c r="G95">
         <v>24.08783718894896</v>
       </c>
       <c r="H95">
-        <v>21.79949265599881</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21.799492655998812</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3170,19 +4021,27 @@
         <v>1.897</v>
       </c>
       <c r="E96">
-        <v>0.9133201566388979</v>
+        <v>0.91332015663889787</v>
       </c>
       <c r="F96">
-        <v>9.282532599166631</v>
+        <v>9.2825325991666308</v>
       </c>
       <c r="G96">
-        <v>4.893269688543295</v>
+        <v>4.8932696885432954</v>
       </c>
       <c r="H96">
-        <v>4.469121838416734</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>4.4691218384167337</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="2"/>
+        <v>0.4814550114069045</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="3"/>
+        <v>0.48145501140690455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3205,10 +4064,18 @@
         <v>5.882352941176471</v>
       </c>
       <c r="H97">
-        <v>20.11176470588235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>20.111764705882351</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="2"/>
+        <v>2.0111764705882353</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="3"/>
+        <v>2.0111764705882349</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3231,7 +4098,15 @@
         <v>5.882352941176471</v>
       </c>
       <c r="H98">
-        <v>20.11176470588235</v>
+        <v>20.111764705882351</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="2"/>
+        <v>2.0111764705882353</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="3"/>
+        <v>2.0111764705882349</v>
       </c>
     </row>
   </sheetData>
